--- a/2024.04.24.이병은부장/20240520/전북_완주군.공공시설 방문 현황 관리.기능목록_20240528_일정.xlsx
+++ b/2024.04.24.이병은부장/20240520/전북_완주군.공공시설 방문 현황 관리.기능목록_20240528_일정.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/softm/Work/onpoom/2024.04.24.이병은부장/20240520/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12A4059-588E-7C4D-B762-CB866D893F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10C12CE-B75A-1D4D-90BD-2D2146C063D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="500" windowWidth="29400" windowHeight="20500" xr2:uid="{6F7D21D4-3418-D14C-A90D-DC28276FDD30}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" activeTab="1" xr2:uid="{6F7D21D4-3418-D14C-A90D-DC28276FDD30}"/>
   </bookViews>
   <sheets>
-    <sheet name="공공시설 방문 현황 관리" sheetId="3" r:id="rId1"/>
-    <sheet name="holiday" sheetId="4" r:id="rId2"/>
+    <sheet name="공공시설 방문 현황 관리" sheetId="6" r:id="rId1"/>
+    <sheet name="공공시설 방문 현황 관리_원본" sheetId="3" r:id="rId2"/>
+    <sheet name="holiday" sheetId="4" r:id="rId3"/>
+    <sheet name="holiday (2)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
   <si>
     <t>1Depth</t>
   </si>
@@ -55,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>팝업 - 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REST API (임시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>건물명 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>센서 상세 정보 팝업 - 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>센서 상세 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,6 +256,22 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 퍼블리싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REST API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서 상세 정보 팝업 - 화면 퍼블리싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,8 +344,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -377,36 +417,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -444,33 +454,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -491,11 +497,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,11 +819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31FB238-AC2D-414B-9383-4072CEE21F10}">
-  <dimension ref="A1:K36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4DC8BF-549C-504C-A03C-B78651EA1569}">
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="D2" zoomScale="90" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -827,10 +836,696 @@
     <col min="6" max="6" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29" customHeight="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="43" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="23" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="10">
+        <v>45446</v>
+      </c>
+      <c r="I3" s="10">
+        <v>45447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="23" customHeight="1">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="10">
+        <v>45448</v>
+      </c>
+      <c r="I4" s="10">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="26" customHeight="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="10">
+        <v>45453</v>
+      </c>
+      <c r="I5" s="10">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="26" customHeight="1">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="10">
+        <v>45454</v>
+      </c>
+      <c r="I6" s="10">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="26" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="10">
+        <v>45454</v>
+      </c>
+      <c r="I7" s="10">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="26" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="10">
+        <v>45455</v>
+      </c>
+      <c r="I8" s="10">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="26" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="10">
+        <v>45455</v>
+      </c>
+      <c r="I9" s="10">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="26" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="10">
+        <v>45455</v>
+      </c>
+      <c r="I10" s="10">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="26" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="10">
+        <v>45455</v>
+      </c>
+      <c r="I11" s="10">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="26" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="10">
+        <v>45455</v>
+      </c>
+      <c r="I12" s="10">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="26" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="10">
+        <v>45455</v>
+      </c>
+      <c r="I13" s="10">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="26" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="10">
+        <v>45456</v>
+      </c>
+      <c r="I14" s="10">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="26" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="10">
+        <v>45456</v>
+      </c>
+      <c r="I15" s="10">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="26" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="10">
+        <v>45456</v>
+      </c>
+      <c r="I16" s="10">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="26" customHeight="1">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="10">
+        <v>45456</v>
+      </c>
+      <c r="I17" s="10">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="26" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="10">
+        <v>45456</v>
+      </c>
+      <c r="I18" s="10">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="26" customHeight="1">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="10">
+        <v>45456</v>
+      </c>
+      <c r="I19" s="10">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="26" customHeight="1">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="10">
+        <v>45457</v>
+      </c>
+      <c r="I20" s="10">
+        <v>45457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="26" customHeight="1">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="10">
+        <v>45460</v>
+      </c>
+      <c r="I21" s="10">
+        <v>45460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="26" customHeight="1">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="10">
+        <v>45461</v>
+      </c>
+      <c r="I22" s="10">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="26" customHeight="1">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="10">
+        <v>45463</v>
+      </c>
+      <c r="I23" s="10">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="26" customHeight="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="10">
+        <v>45467</v>
+      </c>
+      <c r="I24" s="10">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="26" customHeight="1">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="10">
+        <v>45469</v>
+      </c>
+      <c r="I25" s="10">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="26" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="10">
+        <v>45470</v>
+      </c>
+      <c r="I26" s="10">
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="26" customHeight="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="10">
+        <v>45471</v>
+      </c>
+      <c r="I27" s="10">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="26" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="10">
+        <v>45474</v>
+      </c>
+      <c r="I28" s="10">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="26" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="10">
+        <v>45475</v>
+      </c>
+      <c r="I29" s="10">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="26" customHeight="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="10">
+        <v>45476</v>
+      </c>
+      <c r="I30" s="10">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="26" customHeight="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="10">
+        <v>45478</v>
+      </c>
+      <c r="I31" s="10">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="26" customHeight="1">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="10">
+        <v>45481</v>
+      </c>
+      <c r="I32" s="10">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="26" customHeight="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="10">
+        <v>45482</v>
+      </c>
+      <c r="I33" s="10">
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="26" customHeight="1">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="10">
+        <v>45483</v>
+      </c>
+      <c r="I34" s="10">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="26" customHeight="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="10">
+        <v>45484</v>
+      </c>
+      <c r="I35" s="10">
+        <v>45484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="26" customHeight="1">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="10">
+        <v>45485</v>
+      </c>
+      <c r="I36" s="10">
+        <v>45485</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A3:A36"/>
+    <mergeCell ref="B3:B36"/>
+    <mergeCell ref="C3:C36"/>
+    <mergeCell ref="D3:D36"/>
+    <mergeCell ref="E8:E19"/>
+    <mergeCell ref="E20:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="E27:E36"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31FB238-AC2D-414B-9383-4072CEE21F10}">
+  <dimension ref="A1:M59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" customHeight="1">
+    <row r="1" spans="1:13" ht="29" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -839,15 +1534,31 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="8">
-        <v>45440</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" ht="43" customHeight="1" thickBot="1">
+        <v>45446</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="24" t="str" cm="1">
+        <f t="array" ref="J1">TEXT(INDEX(I:I,MAX(IF(I:I&lt;&gt;"",ROW(I:I),0)))- H1,"####.##")&amp;"일"</f>
+        <v>35.일</v>
+      </c>
+      <c r="K1" s="25" t="str" cm="1">
+        <f t="array" ref="K1">NETWORKDAYS(H1,INDEX(I:I,MAX(IF(I:I&lt;&gt;"",ROW(I:I),0))),holiday!A:A) &amp; "일"</f>
+        <v>25일</v>
+      </c>
+      <c r="L1" cm="1">
+        <f t="array" ref="L1">MAX(IF(I:I&lt;&gt;"",ROW(I:I),0))</f>
+        <v>36</v>
+      </c>
+      <c r="M1" s="11" cm="1">
+        <f t="array" ref="M1">INDEX(I:I,MAX(IF(I:I&lt;&gt;"",ROW(I:I),0)))</f>
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="43" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -862,881 +1573,1118 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="23" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="C3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="26">
+        <f>WORKDAY(H1,0,holiday!A:A)</f>
+        <v>45446</v>
+      </c>
+      <c r="I3" s="26">
+        <f>IF(J3="Y",H3,IF(K3&gt;1,WORKDAY(H3, K3-1,holiday!A:A),H3+K3))</f>
+        <v>45447</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="23" customHeight="1">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="23" customHeight="1" thickBot="1">
-      <c r="A3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="12">
-        <f>WORKDAY(H1,0,holiday!A:A)</f>
-        <v>45440</v>
-      </c>
-      <c r="I3" s="12">
-        <f>WORKDAY(H3,K3+IF(K3=0,0,-1),holiday!A:A)</f>
-        <v>45441</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14">
+      <c r="G4" s="2"/>
+      <c r="H4" s="26">
+        <f>IF(J3="Y",H3,IF(K3&gt;1,WORKDAY(H3, K3,holiday!A:A),H3+K3))</f>
+        <v>45448</v>
+      </c>
+      <c r="I4" s="26">
+        <f>IF(J4="Y",H4,IF(K4&gt;1,WORKDAY(H4, K4-1,holiday!A:A),H4+K4))</f>
+        <v>45450</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="23" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="15">
-        <f>WORKDAY(I3,IF(J4="Y",0,1),holiday!A:A)</f>
-        <v>45442</v>
-      </c>
-      <c r="I4" s="15">
-        <f>WORKDAY(H4,K4+IF(K4=0,0,IF(K4&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45443</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="26" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+    <row r="5" spans="1:13" ht="26" customHeight="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="15">
-        <f>WORKDAY(I4,IF(J5="Y",0,1),holiday!A:A)</f>
-        <v>45447</v>
-      </c>
-      <c r="I5" s="15">
-        <f>WORKDAY(H5,K5+IF(K5=0,0,IF(K5&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45447</v>
+      <c r="H5" s="26">
+        <f>IF(J4="Y",H4,IF(K4&gt;1,WORKDAY(H4, K4,holiday!A:A),H4+K4))</f>
+        <v>45453</v>
+      </c>
+      <c r="I5" s="26">
+        <f>IF(J5="Y",H5,IF(K5&gt;1,WORKDAY(H5, K5-1,holiday!A:A),H5+K5))</f>
+        <v>45453.5</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="26" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+    <row r="6" spans="1:13" ht="26" customHeight="1">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="15">
-        <f>WORKDAY(I5,IF(J6="Y",0,1),holiday!A:A)</f>
-        <v>45447</v>
-      </c>
-      <c r="I6" s="15">
-        <f>WORKDAY(H6,K6+IF(K6=0,0,IF(K6&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45447</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="H6" s="26">
+        <f>IF(J5="Y",H5,IF(K5&gt;1,WORKDAY(H5, K5,holiday!A:A),H5+K5))</f>
+        <v>45453.5</v>
+      </c>
+      <c r="I6" s="26">
+        <f>IF(J6="Y",H6,IF(K6&gt;1,WORKDAY(H6, K6-1,holiday!A:A),H6+K6))</f>
+        <v>45454</v>
+      </c>
+      <c r="J6" s="9"/>
       <c r="K6" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+    <row r="7" spans="1:13" ht="26" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="15">
-        <f>WORKDAY(I6,IF(J7="Y",0,1),holiday!A:A)</f>
-        <v>45447</v>
-      </c>
-      <c r="I7" s="15">
-        <f>WORKDAY(H7,K7+IF(K7=0,0,IF(K7&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45447</v>
+      <c r="H7" s="26">
+        <f>IF(J6="Y",H6,IF(K6&gt;1,WORKDAY(H6, K6,holiday!A:A),H6+K6))</f>
+        <v>45454</v>
+      </c>
+      <c r="I7" s="26">
+        <f>IF(J7="Y",H7,IF(K7&gt;1,WORKDAY(H7, K7-1,holiday!A:A),H7+K7))</f>
+        <v>45454</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K7" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="26" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+    <row r="8" spans="1:13" ht="26" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="15">
-        <f>WORKDAY(I7,IF(J8="Y",0,1),holiday!A:A)</f>
-        <v>45448</v>
-      </c>
-      <c r="I8" s="15">
-        <f>WORKDAY(H8,K8+IF(K8=0,0,IF(K8&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45448</v>
+      <c r="H8" s="26">
+        <f>IF(J7="Y",H7,IF(K7&gt;1,WORKDAY(H7, K7,holiday!A:A),H7+K7))</f>
+        <v>45454</v>
+      </c>
+      <c r="I8" s="26">
+        <f>IF(J8="Y",H8,IF(K8&gt;1,WORKDAY(H8, K8-1,holiday!A:A),H8+K8))</f>
+        <v>45454.5</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="26" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+    <row r="9" spans="1:13" ht="26" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="15">
-        <f>WORKDAY(I8,IF(J9="Y",0,1),holiday!A:A)</f>
-        <v>45450</v>
-      </c>
-      <c r="I9" s="15">
-        <f>WORKDAY(H9,K9+IF(K9=0,0,IF(K9&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45450</v>
-      </c>
-      <c r="J9" s="9"/>
+      <c r="H9" s="26">
+        <f>IF(J8="Y",H8,IF(K8&gt;1,WORKDAY(H8, K8,holiday!A:A),H8+K8))</f>
+        <v>45454.5</v>
+      </c>
+      <c r="I9" s="26">
+        <f>IF(J9="Y",H9,IF(K9&gt;1,WORKDAY(H9, K9-1,holiday!A:A),H9+K9))</f>
+        <v>45454.5</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="K9" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+    <row r="10" spans="1:13" ht="26" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="15">
-        <f>WORKDAY(I9,IF(J10="Y",0,1),holiday!A:A)</f>
-        <v>45454</v>
-      </c>
-      <c r="I10" s="15">
-        <f>WORKDAY(H10,K10+IF(K10=0,0,IF(K10&gt;=1,-1,0)),holiday!A:A)</f>
+        <v>40</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="26">
+        <f>IF(J9="Y",H9,IF(K9&gt;1,WORKDAY(H9, K9,holiday!A:A),H9+K9))</f>
+        <v>45454.5</v>
+      </c>
+      <c r="I10" s="26">
+        <f>IF(J10="Y",H10,IF(K10&gt;1,WORKDAY(H10, K10-1,holiday!A:A),H10+K10))</f>
+        <v>45454.5</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="26" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="26">
+        <f>IF(J10="Y",H10,IF(K10&gt;1,WORKDAY(H10, K10,holiday!A:A),H10+K10))</f>
+        <v>45454.5</v>
+      </c>
+      <c r="I11" s="26">
+        <f>IF(J11="Y",H11,IF(K11&gt;1,WORKDAY(H11, K11-1,holiday!A:A),H11+K11))</f>
+        <v>45454.5</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="26" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="26">
+        <f>IF(J11="Y",H11,IF(K11&gt;1,WORKDAY(H11, K11,holiday!A:A),H11+K11))</f>
+        <v>45454.5</v>
+      </c>
+      <c r="I12" s="26">
+        <f>IF(J12="Y",H12,IF(K12&gt;1,WORKDAY(H12, K12-1,holiday!A:A),H12+K12))</f>
+        <v>45454.5</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="26" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="26">
+        <f>IF(J12="Y",H12,IF(K12&gt;1,WORKDAY(H12, K12,holiday!A:A),H12+K12))</f>
+        <v>45454.5</v>
+      </c>
+      <c r="I13" s="26">
+        <f>IF(J13="Y",H13,IF(K13&gt;1,WORKDAY(H13, K13-1,holiday!A:A),H13+K13))</f>
+        <v>45454.5</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="26" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="26">
+        <f>IF(J13="Y",H13,IF(K13&gt;1,WORKDAY(H13, K13,holiday!A:A),H13+K13))</f>
+        <v>45454.5</v>
+      </c>
+      <c r="I14" s="26">
+        <f>IF(J14="Y",H14,IF(K14&gt;1,WORKDAY(H14, K14-1,holiday!A:A),H14+K14))</f>
         <v>45455</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="26" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="15">
-        <f>WORKDAY(I10,IF(J11="Y",0,1),holiday!A:A)</f>
-        <v>45456</v>
-      </c>
-      <c r="I11" s="15">
-        <f>WORKDAY(H11,K11+IF(K11=0,0,IF(K11&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45457</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="26" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="15">
-        <f>WORKDAY(I11,IF(J12="Y",0,1),holiday!A:A)</f>
-        <v>45461</v>
-      </c>
-      <c r="I12" s="15">
-        <f>WORKDAY(H12,K12+IF(K12=0,0,IF(K12&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45463</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="26" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="15">
-        <f>WORKDAY(I12,IF(J13="Y",0,1),holiday!A:A)</f>
-        <v>45464</v>
-      </c>
-      <c r="I13" s="15">
-        <f>WORKDAY(H13,K13+IF(K13=0,0,IF(K13&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45464</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="26" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="15">
-        <f>WORKDAY(I13,IF(J14="Y",0,1),holiday!A:A)</f>
-        <v>45468</v>
-      </c>
-      <c r="I14" s="15">
-        <f>WORKDAY(H14,K14+IF(K14=0,0,IF(K14&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45469</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="26" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="19" t="s">
-        <v>16</v>
-      </c>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="26" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="15">
-        <f>WORKDAY(I14,IF(J15="Y",0,1),holiday!A:A)</f>
-        <v>45470</v>
-      </c>
-      <c r="I15" s="15">
-        <f>WORKDAY(H15,K15+IF(K15=0,0,IF(K15&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45470</v>
-      </c>
-      <c r="J15" s="9"/>
+      <c r="H15" s="26">
+        <f>IF(J14="Y",H14,IF(K14&gt;1,WORKDAY(H14, K14,holiday!A:A),H14+K14))</f>
+        <v>45455</v>
+      </c>
+      <c r="I15" s="26">
+        <f>IF(J15="Y",H15,IF(K15&gt;1,WORKDAY(H15, K15-1,holiday!A:A),H15+K15))</f>
+        <v>45455</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="K15" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="26" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="20"/>
+    <row r="16" spans="1:13" ht="26" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="15">
-        <f>WORKDAY(I15,IF(J16="Y",0,1),holiday!A:A)</f>
-        <v>45470</v>
-      </c>
-      <c r="I16" s="15">
-        <f>WORKDAY(H16,K16+IF(K16=0,0,IF(K16&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45470</v>
+      <c r="H16" s="26">
+        <f>IF(J15="Y",H15,IF(K15&gt;1,WORKDAY(H15, K15,holiday!A:A),H15+K15))</f>
+        <v>45455</v>
+      </c>
+      <c r="I16" s="26">
+        <f>IF(J16="Y",H16,IF(K16&gt;1,WORKDAY(H16, K16-1,holiday!A:A),H16+K16))</f>
+        <v>45455</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K16" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="26" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="20"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="15">
-        <f>WORKDAY(I16,IF(J17="Y",0,1),holiday!A:A)</f>
-        <v>45471</v>
-      </c>
-      <c r="I17" s="15">
-        <f>WORKDAY(H17,K17+IF(K17=0,0,IF(K17&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45471</v>
-      </c>
-      <c r="J17" s="9"/>
+      <c r="H17" s="26">
+        <f>IF(J16="Y",H16,IF(K16&gt;1,WORKDAY(H16, K16,holiday!A:A),H16+K16))</f>
+        <v>45455</v>
+      </c>
+      <c r="I17" s="26">
+        <f>IF(J17="Y",H17,IF(K17&gt;1,WORKDAY(H17, K17-1,holiday!A:A),H17+K17))</f>
+        <v>45455</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="K17" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="26" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="20"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="15">
-        <f>WORKDAY(I17,IF(J18="Y",0,1),holiday!A:A)</f>
-        <v>45475</v>
-      </c>
-      <c r="I18" s="15">
-        <f>WORKDAY(H18,K18+IF(K18=0,0,IF(K18&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45476</v>
-      </c>
-      <c r="J18" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="26">
+        <f>IF(J17="Y",H17,IF(K17&gt;1,WORKDAY(H17, K17,holiday!A:A),H17+K17))</f>
+        <v>45455</v>
+      </c>
+      <c r="I18" s="26">
+        <f>IF(J18="Y",H18,IF(K18&gt;1,WORKDAY(H18, K18-1,holiday!A:A),H18+K18))</f>
+        <v>45455</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="K18" s="9">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="26" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="15">
-        <f>WORKDAY(I18,IF(J19="Y",0,1),holiday!A:A)</f>
-        <v>45477</v>
-      </c>
-      <c r="I19" s="15">
-        <f>WORKDAY(H19,K19+IF(K19=0,0,IF(K19&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45477</v>
-      </c>
-      <c r="J19" s="9"/>
+      <c r="F19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="26">
+        <f>IF(J18="Y",H18,IF(K18&gt;1,WORKDAY(H18, K18,holiday!A:A),H18+K18))</f>
+        <v>45455</v>
+      </c>
+      <c r="I19" s="26">
+        <f>IF(J19="Y",H19,IF(K19&gt;1,WORKDAY(H19, K19-1,holiday!A:A),H19+K19))</f>
+        <v>45455</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="K19" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="26" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="15">
-        <f>WORKDAY(I19,IF(J20="Y",0,1),holiday!A:A)</f>
-        <v>45478</v>
-      </c>
-      <c r="I20" s="15">
-        <f>WORKDAY(H20,K20+IF(K20=0,0,IF(K20&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45478</v>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="26">
+        <f>IF(J19="Y",H19,IF(K19&gt;1,WORKDAY(H19, K19,holiday!A:A),H19+K19))</f>
+        <v>45455</v>
+      </c>
+      <c r="I20" s="26">
+        <f>IF(J20="Y",H20,IF(K20&gt;1,WORKDAY(H20, K20-1,holiday!A:A),H20+K20))</f>
+        <v>45456</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="26" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="15">
-        <f>WORKDAY(I20,IF(J21="Y",0,1),holiday!A:A)</f>
-        <v>45482</v>
-      </c>
-      <c r="I21" s="15">
-        <f>WORKDAY(H21,K21+IF(K21=0,0,IF(K21&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45482</v>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="26">
+        <f>IF(J20="Y",H20,IF(K20&gt;1,WORKDAY(H20, K20,holiday!A:A),H20+K20))</f>
+        <v>45456</v>
+      </c>
+      <c r="I21" s="26">
+        <f>IF(J21="Y",H21,IF(K21&gt;1,WORKDAY(H21, K21-1,holiday!A:A),H21+K21))</f>
+        <v>45457</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="26" customHeight="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="15">
-        <f>WORKDAY(I21,IF(J22="Y",0,1),holiday!A:A)</f>
-        <v>45483</v>
-      </c>
-      <c r="I22" s="15">
-        <f>WORKDAY(H22,K22+IF(K22=0,0,IF(K22&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45483</v>
+        <v>18</v>
+      </c>
+      <c r="H22" s="26">
+        <f>IF(J21="Y",H21,IF(K21&gt;1,WORKDAY(H21, K21,holiday!A:A),H21+K21))</f>
+        <v>45457</v>
+      </c>
+      <c r="I22" s="26">
+        <f>IF(J22="Y",H22,IF(K22&gt;1,WORKDAY(H22, K22-1,holiday!A:A),H22+K22))</f>
+        <v>45460</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="26" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="16" t="s">
-        <v>24</v>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="15">
-        <f>WORKDAY(I22,IF(J23="Y",0,1),holiday!A:A)</f>
-        <v>45484</v>
-      </c>
-      <c r="I23" s="15">
-        <f>WORKDAY(H23,K23+IF(K23=0,0,IF(K23&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45484</v>
+        <v>18</v>
+      </c>
+      <c r="H23" s="26">
+        <f>IF(J22="Y",H22,IF(K22&gt;1,WORKDAY(H22, K22,holiday!A:A),H22+K22))</f>
+        <v>45461</v>
+      </c>
+      <c r="I23" s="26">
+        <f>IF(J23="Y",H23,IF(K23&gt;1,WORKDAY(H23, K23-1,holiday!A:A),H23+K23))</f>
+        <v>45462</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="26" customHeight="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="17"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="15">
-        <f>WORKDAY(I23,IF(J24="Y",0,1),holiday!A:A)</f>
-        <v>45485</v>
-      </c>
-      <c r="I24" s="15">
-        <f>WORKDAY(H24,K24+IF(K24=0,0,IF(K24&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45485</v>
+        <v>17</v>
+      </c>
+      <c r="H24" s="26">
+        <f>IF(J23="Y",H23,IF(K23&gt;1,WORKDAY(H23, K23,holiday!A:A),H23+K23))</f>
+        <v>45463</v>
+      </c>
+      <c r="I24" s="26">
+        <f>IF(J24="Y",H24,IF(K24&gt;1,WORKDAY(H24, K24-1,holiday!A:A),H24+K24))</f>
+        <v>45464</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="26" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="15">
-        <f>WORKDAY(I24,IF(J25="Y",0,1),holiday!A:A)</f>
-        <v>45489</v>
-      </c>
-      <c r="I25" s="15">
-        <f>WORKDAY(H25,K25+IF(K25=0,0,IF(K25&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45491</v>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="26">
+        <f>IF(J24="Y",H24,IF(K24&gt;1,WORKDAY(H24, K24,holiday!A:A),H24+K24))</f>
+        <v>45467</v>
+      </c>
+      <c r="I25" s="26">
+        <f>IF(J25="Y",H25,IF(K25&gt;1,WORKDAY(H25, K25-1,holiday!A:A),H25+K25))</f>
+        <v>45468</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="26" customHeight="1">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="15">
-        <f>WORKDAY(I25,IF(J26="Y",0,1),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="I26" s="15">
-        <f>WORKDAY(H26,K26+IF(K26=0,0,IF(K26&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="26">
+        <f>IF(J25="Y",H25,IF(K25&gt;1,WORKDAY(H25, K25,holiday!A:A),H25+K25))</f>
+        <v>45468</v>
+      </c>
+      <c r="I26" s="26">
+        <f>IF(J26="Y",H26,IF(K26&gt;1,WORKDAY(H26, K26-1,holiday!A:A),H26+K26))</f>
+        <v>45469</v>
+      </c>
+      <c r="J26" s="9"/>
       <c r="K26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="26" customHeight="1">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="20"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="15">
-        <f>WORKDAY(I26,IF(J27="Y",0,1),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="I27" s="15">
-        <f>WORKDAY(H27,K27+IF(K27=0,0,IF(K27&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="H27" s="26">
+        <f>IF(J26="Y",H26,IF(K26&gt;1,WORKDAY(H26, K26,holiday!A:A),H26+K26))</f>
+        <v>45469</v>
+      </c>
+      <c r="I27" s="26">
+        <f>IF(J27="Y",H27,IF(K27&gt;1,WORKDAY(H27, K27-1,holiday!A:A),H27+K27))</f>
+        <v>45470</v>
+      </c>
+      <c r="J27" s="9"/>
       <c r="K27" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="26" customHeight="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="20"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="26">
+        <f>IF(J27="Y",H27,IF(K27&gt;1,WORKDAY(H27, K27,holiday!A:A),H27+K27))</f>
+        <v>45471</v>
+      </c>
+      <c r="I28" s="26">
+        <f>IF(J28="Y",H28,IF(K28&gt;1,WORKDAY(H28, K28-1,holiday!A:A),H28+K28))</f>
+        <v>45471</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="26" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="26">
+        <f>IF(J28="Y",H28,IF(K28&gt;1,WORKDAY(H28, K28,holiday!A:A),H28+K28))</f>
+        <v>45471</v>
+      </c>
+      <c r="I29" s="26">
+        <f>IF(J29="Y",H29,IF(K29&gt;1,WORKDAY(H29, K29-1,holiday!A:A),H29+K29))</f>
+        <v>45471.5</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="26" customHeight="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="15">
-        <f>WORKDAY(I27,IF(J28="Y",0,1),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="I28" s="15">
-        <f>WORKDAY(H28,K28+IF(K28=0,0,IF(K28&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="26" customHeight="1">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="15">
-        <f>WORKDAY(I28,IF(J29="Y",0,1),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="I29" s="15">
-        <f>WORKDAY(H29,K29+IF(K29=0,0,IF(K29&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="26" customHeight="1">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="15">
-        <f>WORKDAY(I29,IF(J30="Y",0,1),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="I30" s="15">
-        <f>WORKDAY(H30,K30+IF(K30=0,0,IF(K30&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="H30" s="26">
+        <f>IF(J29="Y",H29,IF(K29&gt;1,WORKDAY(H29, K29,holiday!A:A),H29+K29))</f>
+        <v>45471.5</v>
+      </c>
+      <c r="I30" s="26">
+        <f>IF(J30="Y",H30,IF(K30&gt;1,WORKDAY(H30, K30-1,holiday!A:A),H30+K30))</f>
+        <v>45474</v>
+      </c>
+      <c r="J30" s="9"/>
       <c r="K30" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="26" customHeight="1">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="2" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="26">
+        <f>IF(J30="Y",H30,IF(K30&gt;1,WORKDAY(H30, K30,holiday!A:A),H30+K30))</f>
+        <v>45475</v>
+      </c>
+      <c r="I31" s="26">
+        <f>IF(J31="Y",H31,IF(K31&gt;1,WORKDAY(H31, K31-1,holiday!A:A),H31+K31))</f>
+        <v>45476</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="26" customHeight="1">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="26">
+        <f>IF(J31="Y",H31,IF(K31&gt;1,WORKDAY(H31, K31,holiday!A:A),H31+K31))</f>
+        <v>45476</v>
+      </c>
+      <c r="I32" s="26">
+        <f>IF(J32="Y",H32,IF(K32&gt;1,WORKDAY(H32, K32-1,holiday!A:A),H32+K32))</f>
+        <v>45477</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="26" customHeight="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="26">
+        <f>IF(J32="Y",H32,IF(K32&gt;1,WORKDAY(H32, K32,holiday!A:A),H32+K32))</f>
+        <v>45477</v>
+      </c>
+      <c r="I33" s="26">
+        <f>IF(J33="Y",H33,IF(K33&gt;1,WORKDAY(H33, K33-1,holiday!A:A),H33+K33))</f>
+        <v>45478</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="26" customHeight="1">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="26">
+        <f>IF(J33="Y",H33,IF(K33&gt;1,WORKDAY(H33, K33,holiday!A:A),H33+K33))</f>
+        <v>45478</v>
+      </c>
+      <c r="I34" s="26">
+        <f>IF(J34="Y",H34,IF(K34&gt;1,WORKDAY(H34, K34-1,holiday!A:A),H34+K34))</f>
+        <v>45479</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="26" customHeight="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="26">
+        <f>IF(J34="Y",H34,IF(K34&gt;1,WORKDAY(H34, K34,holiday!A:A),H34+K34))</f>
+        <v>45479</v>
+      </c>
+      <c r="I35" s="26">
+        <f>IF(J35="Y",H35,IF(K35&gt;1,WORKDAY(H35, K35-1,holiday!A:A),H35+K35))</f>
+        <v>45480</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="26" customHeight="1">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="15">
-        <f>WORKDAY(I30,IF(J31="Y",0,1),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="I31" s="15">
-        <f>WORKDAY(H31,K31+IF(K31=0,0,IF(K31&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="26" customHeight="1">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="15">
-        <f>WORKDAY(I31,IF(J32="Y",0,1),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="I32" s="15">
-        <f>WORKDAY(H32,K32+IF(K32=0,0,IF(K32&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="26" customHeight="1">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="15">
-        <f>WORKDAY(I32,IF(J33="Y",0,1),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="I33" s="15">
-        <f>WORKDAY(H33,K33+IF(K33=0,0,IF(K33&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="26" customHeight="1">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="15">
-        <f>WORKDAY(I33,IF(J34="Y",0,1),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="I34" s="15">
-        <f>WORKDAY(H34,K34+IF(K34=0,0,IF(K34&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="26" customHeight="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="15">
-        <f>WORKDAY(I34,IF(J35="Y",0,1),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="I35" s="15">
-        <f>WORKDAY(H35,K35+IF(K35=0,0,IF(K35&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="26" customHeight="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="15">
-        <f>WORKDAY(I35,IF(J36="Y",0,1),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="I36" s="15">
-        <f>WORKDAY(H36,K36+IF(K36=0,0,IF(K36&gt;=1,-1,0)),holiday!A:A)</f>
-        <v>45491</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="H36" s="26">
+        <f>IF(J35="Y",H35,IF(K35&gt;1,WORKDAY(H35, K35,holiday!A:A),H35+K35))</f>
+        <v>45480</v>
+      </c>
+      <c r="I36" s="26">
+        <f>IF(J36="Y",H36,IF(K36&gt;1,WORKDAY(H36, K36-1,holiday!A:A),H36+K36))</f>
+        <v>45481</v>
+      </c>
+      <c r="J36" s="9"/>
       <c r="K36" s="9">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="8:9">
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="8:9">
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="8:9">
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+    </row>
+    <row r="52" spans="8:9">
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="8:9">
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="8:9">
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+    </row>
+    <row r="55" spans="8:9">
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="8:9">
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" spans="8:9">
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+    </row>
+    <row r="58" spans="8:9">
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+    </row>
+    <row r="59" spans="8:9">
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="E27:E36"/>
+    <mergeCell ref="F31:F32"/>
     <mergeCell ref="A3:A36"/>
     <mergeCell ref="B3:B36"/>
     <mergeCell ref="C3:C36"/>
     <mergeCell ref="D3:D36"/>
-    <mergeCell ref="E3:E14"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="E15:E24"/>
-    <mergeCell ref="E25:E36"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E8:E19"/>
+    <mergeCell ref="E20:E26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97983624-FE3C-3349-90DC-B52FD2F6D4DC}">
+  <dimension ref="A1:A43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="11">
+        <v>45449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="11"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="11"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="12"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="12"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="12"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="12"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="12"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="12"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="12"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="12"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="12"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="12"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="12"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="12"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="12"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="12"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="12"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="12"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="12"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="12"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="12"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="12"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="12"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="12"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="12"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="12"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="12"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="12"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="12"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="12"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="12"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="12"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="12"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="12"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="12"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8EEA4E-B25E-A648-8464-67F68F3E1D2B}">
   <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1746,256 +2694,256 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="25">
+      <c r="A1" s="11">
         <v>45446</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="25">
+      <c r="A2" s="11">
         <v>45449</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="25">
+      <c r="A3" s="11">
         <v>45453</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="26">
+      <c r="A4" s="12">
         <f>A3+7</f>
         <v>45460</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="26">
+      <c r="A5" s="12">
         <f t="shared" ref="A5:A43" si="0">A4+7</f>
         <v>45467</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="26">
+      <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>45474</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="26">
+      <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>45481</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="26">
+      <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>45488</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="26">
+      <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>45495</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="26">
+      <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>45502</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="26">
+      <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>45509</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="26">
+      <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>45516</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="26">
+      <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>45523</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="26">
+      <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>45530</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="26">
+      <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>45537</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="26">
+      <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>45544</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="26">
+      <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>45551</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="26">
+      <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>45558</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="26">
+      <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>45565</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="26">
+      <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>45572</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="26">
+      <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>45579</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="26">
+      <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>45586</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="26">
+      <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>45593</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="26">
+      <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>45600</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="26">
+      <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>45607</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="26">
+      <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>45614</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="26">
+      <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>45621</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="26">
+      <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>45628</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="26">
+      <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>45635</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="26">
+      <c r="A30" s="12">
         <f t="shared" si="0"/>
         <v>45642</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="26">
+      <c r="A31" s="12">
         <f t="shared" si="0"/>
         <v>45649</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="26">
+      <c r="A32" s="12">
         <f t="shared" si="0"/>
         <v>45656</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="26">
+      <c r="A33" s="12">
         <f t="shared" si="0"/>
         <v>45663</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="26">
+      <c r="A34" s="12">
         <f t="shared" si="0"/>
         <v>45670</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="26">
+      <c r="A35" s="12">
         <f t="shared" si="0"/>
         <v>45677</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="26">
+      <c r="A36" s="12">
         <f t="shared" si="0"/>
         <v>45684</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="26">
+      <c r="A37" s="12">
         <f t="shared" si="0"/>
         <v>45691</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="26">
+      <c r="A38" s="12">
         <f t="shared" si="0"/>
         <v>45698</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="26">
+      <c r="A39" s="12">
         <f t="shared" si="0"/>
         <v>45705</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="26">
+      <c r="A40" s="12">
         <f t="shared" si="0"/>
         <v>45712</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="26">
+      <c r="A41" s="12">
         <f t="shared" si="0"/>
         <v>45719</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="26">
+      <c r="A42" s="12">
         <f t="shared" si="0"/>
         <v>45726</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="26">
+      <c r="A43" s="12">
         <f t="shared" si="0"/>
         <v>45733</v>
       </c>

--- a/2024.04.24.이병은부장/20240520/전북_완주군.공공시설 방문 현황 관리.기능목록_20240528_일정.xlsx
+++ b/2024.04.24.이병은부장/20240520/전북_완주군.공공시설 방문 현황 관리.기능목록_20240528_일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/softm/Work/onpoom/2024.04.24.이병은부장/20240520/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10C12CE-B75A-1D4D-90BD-2D2146C063D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87FA8D5-B1C9-314E-815C-17D96C980B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" activeTab="1" xr2:uid="{6F7D21D4-3418-D14C-A90D-DC28276FDD30}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{6F7D21D4-3418-D14C-A90D-DC28276FDD30}"/>
   </bookViews>
   <sheets>
     <sheet name="공공시설 방문 현황 관리" sheetId="6" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
   <si>
     <t>1Depth</t>
   </si>
@@ -255,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화면 퍼블리싱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,15 +267,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>TEXT
+시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT
+종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보정일수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27일</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,8 +333,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,14 +363,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -423,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,14 +508,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4DC8BF-549C-504C-A03C-B78651EA1569}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="D1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -912,7 +932,7 @@
       <c r="D4" s="22"/>
       <c r="E4" s="14"/>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="10">
@@ -979,7 +999,7 @@
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>26</v>
@@ -1278,7 +1298,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="16"/>
       <c r="G25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="10">
         <v>45469</v>
@@ -1313,7 +1333,7 @@
         <v>15</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="10">
@@ -1505,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31FB238-AC2D-414B-9383-4072CEE21F10}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1520,12 +1540,18 @@
     <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" customHeight="1">
+    <row r="1" spans="1:20" ht="29" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1536,27 +1562,31 @@
       <c r="H1" s="8">
         <v>45446</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="24" t="str" cm="1">
-        <f t="array" ref="J1">TEXT(INDEX(I:I,MAX(IF(I:I&lt;&gt;"",ROW(I:I),0)))- H1,"####.##")&amp;"일"</f>
-        <v>35.일</v>
-      </c>
-      <c r="K1" s="25" t="str" cm="1">
-        <f t="array" ref="K1">NETWORKDAYS(H1,INDEX(I:I,MAX(IF(I:I&lt;&gt;"",ROW(I:I),0))),holiday!A:A) &amp; "일"</f>
-        <v>25일</v>
-      </c>
-      <c r="L1" cm="1">
-        <f t="array" ref="L1">MAX(IF(I:I&lt;&gt;"",ROW(I:I),0))</f>
-        <v>36</v>
-      </c>
-      <c r="M1" s="11" cm="1">
-        <f t="array" ref="M1">INDEX(I:I,MAX(IF(I:I&lt;&gt;"",ROW(I:I),0)))</f>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="43" customHeight="1">
+      <c r="I1" s="8" cm="1">
+        <f t="array" ref="I1">INDEX(H:H,MAX(IF(H:H&lt;&gt;"",ROW(H:H),0)))</f>
+        <v>45484</v>
+      </c>
+      <c r="J1" s="8" t="str" cm="1">
+        <f t="array" ref="J1">TEXT(INDEX(I:I,MAX(IF(I:I&lt;&gt;"",ROW(I:I),0)))- H1,"#,###")&amp;"일"</f>
+        <v>38일</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="27" t="str" cm="1">
+        <f t="array" ref="L1">MAX(IF(M:M&lt;&gt;"",ROW(M:M),0)) &amp; "건"</f>
+        <v>36건</v>
+      </c>
+      <c r="M1" s="27"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="11"/>
+    </row>
+    <row r="2" spans="1:20" ht="43" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1584,14 +1614,32 @@
       <c r="I2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="23" customHeight="1">
+      <c r="S2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="23" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
@@ -1611,43 +1659,89 @@
         <v>48</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="26">
+      <c r="H3" s="24">
+        <f>M3</f>
+        <v>45446</v>
+      </c>
+      <c r="I3" s="24">
+        <f>IF(Q3="Y",H3,IF(R3&gt;=1,WORKDAY(H3, R3-1,holiday!A:A),H3+R3))</f>
+        <v>45447</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24">
         <f>WORKDAY(H1,0,holiday!A:A)</f>
         <v>45446</v>
       </c>
-      <c r="I3" s="26">
-        <f>IF(J3="Y",H3,IF(K3&gt;1,WORKDAY(H3, K3-1,holiday!A:A),H3+K3))</f>
+      <c r="N3" s="24">
+        <f>IF(Q3="Y",M3,IF(R3&gt;1,WORKDAY(M3, R3-1,holiday!A:A),M3+R3))</f>
         <v>45447</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
+      <c r="O3" s="24" t="str">
+        <f>TEXT(M3,"YYYY-MM-DD")</f>
+        <v>2024-06-03</v>
+      </c>
+      <c r="P3" s="24" t="str">
+        <f>TEXT(N3,"YYYY-MM-DD")</f>
+        <v>2024-06-04</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="23" customHeight="1">
+      <c r="S3" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H2,Q:Q,"&lt;&gt;Y")-R3</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="23" customHeight="1">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="14"/>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="26">
-        <f>IF(J3="Y",H3,IF(K3&gt;1,WORKDAY(H3, K3,holiday!A:A),H3+K3))</f>
+      <c r="H4" s="24">
+        <f>WORKDAY(M4,IF(S4=0,R4,S4))</f>
+        <v>45450</v>
+      </c>
+      <c r="I4" s="24">
+        <f>IF(Q4="Y",H4,IF(R4&gt;=1,WORKDAY(H4, R4-1,holiday!A:A),H4+R4))</f>
+        <v>45453</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24">
+        <f>IF(Q3="Y",M3,IF(R3&gt;1,WORKDAY(M3, R3,holiday!A:A),M3+R3))</f>
         <v>45448</v>
       </c>
-      <c r="I4" s="26">
-        <f>IF(J4="Y",H4,IF(K4&gt;1,WORKDAY(H4, K4-1,holiday!A:A),H4+K4))</f>
-        <v>45450</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9">
+      <c r="N4" s="24">
+        <f>IF(Q4="Y",M4,IF(R4&gt;=1,WORKDAY(M4, R4,holiday!A:A),M4+R4))</f>
+        <v>45453</v>
+      </c>
+      <c r="O4" s="24" t="str">
+        <f t="shared" ref="O4:O36" si="0">TEXT(M4,"YYYY-MM-DD")</f>
+        <v>2024-06-05</v>
+      </c>
+      <c r="P4" s="24" t="str">
+        <f t="shared" ref="P4:P36" si="1">TEXT(N4,"YYYY-MM-DD")</f>
+        <v>2024-06-10</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="26" customHeight="1">
+      <c r="S4" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H3,Q:Q,"&lt;&gt;Y")-R4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="26" customHeight="1">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -1657,20 +1751,43 @@
         <v>9</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="26">
-        <f>IF(J4="Y",H4,IF(K4&gt;1,WORKDAY(H4, K4,holiday!A:A),H4+K4))</f>
+      <c r="H5" s="24">
+        <f t="shared" ref="H5:H36" si="2">WORKDAY(M5,IF(S5=0,R5,S5))</f>
         <v>45453</v>
       </c>
-      <c r="I5" s="26">
-        <f>IF(J5="Y",H5,IF(K5&gt;1,WORKDAY(H5, K5-1,holiday!A:A),H5+K5))</f>
+      <c r="I5" s="24">
+        <f>IF(Q5="Y",H5,IF(R5&gt;=1,WORKDAY(H5, R5-1,holiday!A:A),H5+R5))</f>
         <v>45453.5</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24">
+        <f>IF(Q4="Y",M4,IF(R4&gt;1,WORKDAY(M4, R4,holiday!A:A),M4+R4))</f>
+        <v>45453</v>
+      </c>
+      <c r="N5" s="24">
+        <f>IF(Q5="Y",M5,IF(R5&gt;=1,WORKDAY(M5, R5,holiday!A:A),M5+R5))</f>
+        <v>45453.5</v>
+      </c>
+      <c r="O5" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-10</v>
+      </c>
+      <c r="P5" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-10</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="26" customHeight="1">
+      <c r="S5" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H4,Q:Q,"&lt;&gt;Y")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="26" customHeight="1">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -1680,20 +1797,43 @@
         <v>10</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="26">
-        <f>IF(J5="Y",H5,IF(K5&gt;1,WORKDAY(H5, K5,holiday!A:A),H5+K5))</f>
+      <c r="H6" s="24">
+        <f t="shared" si="2"/>
+        <v>45453</v>
+      </c>
+      <c r="I6" s="24">
+        <f>IF(Q6="Y",H6,IF(R6&gt;=1,WORKDAY(H6, R6-1,holiday!A:A),H6+R6))</f>
         <v>45453.5</v>
       </c>
-      <c r="I6" s="26">
-        <f>IF(J6="Y",H6,IF(K6&gt;1,WORKDAY(H6, K6-1,holiday!A:A),H6+K6))</f>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24">
+        <f>IF(Q5="Y",M5,IF(R5&gt;1,WORKDAY(M5, R5,holiday!A:A),M5+R5))</f>
+        <v>45453.5</v>
+      </c>
+      <c r="N6" s="24">
+        <f>IF(Q6="Y",M6,IF(R6&gt;=1,WORKDAY(M6, R6,holiday!A:A),M6+R6))</f>
         <v>45454</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9">
+      <c r="O6" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-10</v>
+      </c>
+      <c r="P6" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-11</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="26" customHeight="1">
+      <c r="S6" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H5,Q:Q,"&lt;&gt;Y")-R6</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="26" customHeight="1">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -1703,47 +1843,91 @@
         <v>26</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="26">
-        <f>IF(J6="Y",H6,IF(K6&gt;1,WORKDAY(H6, K6,holiday!A:A),H6+K6))</f>
+      <c r="H7" s="24">
+        <f t="shared" si="2"/>
         <v>45454</v>
       </c>
-      <c r="I7" s="26">
-        <f>IF(J7="Y",H7,IF(K7&gt;1,WORKDAY(H7, K7-1,holiday!A:A),H7+K7))</f>
+      <c r="I7" s="24">
+        <f>IF(Q7="Y",H7,IF(R7&gt;=1,WORKDAY(H7, R7-1,holiday!A:A),H7+R7))</f>
+        <v>45454.5</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24">
+        <f>IF(Q6="Y",M6,IF(R6&gt;1,WORKDAY(M6, R6,holiday!A:A),M6+R6))</f>
         <v>45454</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="N7" s="24">
+        <f>IF(Q7="Y",M7,IF(R7&gt;=1,WORKDAY(M7, R7,holiday!A:A),M7+R7))</f>
+        <v>45454.5</v>
+      </c>
+      <c r="O7" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-11</v>
+      </c>
+      <c r="P7" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-11</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="26" customHeight="1">
+      <c r="S7" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H6,Q:Q,"&lt;&gt;Y")-R7</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="26" customHeight="1">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="26">
-        <f>IF(J7="Y",H7,IF(K7&gt;1,WORKDAY(H7, K7,holiday!A:A),H7+K7))</f>
+      <c r="H8" s="24">
+        <f t="shared" si="2"/>
         <v>45454</v>
       </c>
-      <c r="I8" s="26">
-        <f>IF(J8="Y",H8,IF(K8&gt;1,WORKDAY(H8, K8-1,holiday!A:A),H8+K8))</f>
+      <c r="I8" s="24">
+        <f>IF(Q8="Y",H8,IF(R8&gt;=1,WORKDAY(H8, R8-1,holiday!A:A),H8+R8))</f>
         <v>45454.5</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9">
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24">
+        <f>IF(Q7="Y",M7,IF(R7&gt;1,WORKDAY(M7, R7,holiday!A:A),M7+R7))</f>
+        <v>45454.5</v>
+      </c>
+      <c r="N8" s="24">
+        <f>IF(Q8="Y",M8,IF(R8&gt;=1,WORKDAY(M8, R8,holiday!A:A),M8+R8))</f>
+        <v>45455</v>
+      </c>
+      <c r="O8" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-11</v>
+      </c>
+      <c r="P8" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-12</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="26" customHeight="1">
+      <c r="S8" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H7,Q:Q,"&lt;&gt;Y")-R8</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="26" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -1753,22 +1937,43 @@
         <v>38</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="26">
-        <f>IF(J8="Y",H8,IF(K8&gt;1,WORKDAY(H8, K8,holiday!A:A),H8+K8))</f>
-        <v>45454.5</v>
-      </c>
-      <c r="I9" s="26">
-        <f>IF(J9="Y",H9,IF(K9&gt;1,WORKDAY(H9, K9-1,holiday!A:A),H9+K9))</f>
-        <v>45454.5</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="9">
+      <c r="H9" s="24">
+        <f t="shared" si="2"/>
+        <v>45455</v>
+      </c>
+      <c r="I9" s="24">
+        <f>IF(Q9="Y",H9,IF(R9&gt;=1,WORKDAY(H9, R9-1,holiday!A:A),H9+R9))</f>
+        <v>45455.5</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24">
+        <f>IF(Q8="Y",M8,IF(R8&gt;1,WORKDAY(M8, R8,holiday!A:A),M8+R8))</f>
+        <v>45455</v>
+      </c>
+      <c r="N9" s="24">
+        <f>IF(Q9="Y",M9,IF(R9&gt;=1,WORKDAY(M9, R9,holiday!A:A),M9+R9))</f>
+        <v>45455.5</v>
+      </c>
+      <c r="O9" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-12</v>
+      </c>
+      <c r="P9" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-12</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="26" customHeight="1">
+      <c r="S9" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H8,Q:Q,"&lt;&gt;Y")-R9</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="26" customHeight="1">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -1778,22 +1983,43 @@
         <v>40</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="26">
-        <f>IF(J9="Y",H9,IF(K9&gt;1,WORKDAY(H9, K9,holiday!A:A),H9+K9))</f>
-        <v>45454.5</v>
-      </c>
-      <c r="I10" s="26">
-        <f>IF(J10="Y",H10,IF(K10&gt;1,WORKDAY(H10, K10-1,holiday!A:A),H10+K10))</f>
-        <v>45454.5</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="9">
+      <c r="H10" s="24">
+        <f t="shared" si="2"/>
+        <v>45455</v>
+      </c>
+      <c r="I10" s="24">
+        <f>IF(Q10="Y",H10,IF(R10&gt;=1,WORKDAY(H10, R10-1,holiday!A:A),H10+R10))</f>
+        <v>45455.5</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24">
+        <f>IF(Q9="Y",M9,IF(R9&gt;1,WORKDAY(M9, R9,holiday!A:A),M9+R9))</f>
+        <v>45455.5</v>
+      </c>
+      <c r="N10" s="24">
+        <f>IF(Q10="Y",M10,IF(R10&gt;=1,WORKDAY(M10, R10,holiday!A:A),M10+R10))</f>
+        <v>45456</v>
+      </c>
+      <c r="O10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-12</v>
+      </c>
+      <c r="P10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-13</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="26" customHeight="1">
+      <c r="S10" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H9,Q:Q,"&lt;&gt;Y")-R10</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="26" customHeight="1">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -1803,22 +2029,43 @@
         <v>41</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="26">
-        <f>IF(J10="Y",H10,IF(K10&gt;1,WORKDAY(H10, K10,holiday!A:A),H10+K10))</f>
-        <v>45454.5</v>
-      </c>
-      <c r="I11" s="26">
-        <f>IF(J11="Y",H11,IF(K11&gt;1,WORKDAY(H11, K11-1,holiday!A:A),H11+K11))</f>
-        <v>45454.5</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="9">
+      <c r="H11" s="24">
+        <f t="shared" si="2"/>
+        <v>45456</v>
+      </c>
+      <c r="I11" s="24">
+        <f>IF(Q11="Y",H11,IF(R11&gt;=1,WORKDAY(H11, R11-1,holiday!A:A),H11+R11))</f>
+        <v>45456.5</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24">
+        <f>IF(Q10="Y",M10,IF(R10&gt;1,WORKDAY(M10, R10,holiday!A:A),M10+R10))</f>
+        <v>45456</v>
+      </c>
+      <c r="N11" s="24">
+        <f>IF(Q11="Y",M11,IF(R11&gt;=1,WORKDAY(M11, R11,holiday!A:A),M11+R11))</f>
+        <v>45456.5</v>
+      </c>
+      <c r="O11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-13</v>
+      </c>
+      <c r="P11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-13</v>
+      </c>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="26" customHeight="1">
+      <c r="S11" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H10,Q:Q,"&lt;&gt;Y")-R11</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="26" customHeight="1">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -1828,22 +2075,43 @@
         <v>27</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="26">
-        <f>IF(J11="Y",H11,IF(K11&gt;1,WORKDAY(H11, K11,holiday!A:A),H11+K11))</f>
-        <v>45454.5</v>
-      </c>
-      <c r="I12" s="26">
-        <f>IF(J12="Y",H12,IF(K12&gt;1,WORKDAY(H12, K12-1,holiday!A:A),H12+K12))</f>
-        <v>45454.5</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="9">
+      <c r="H12" s="24">
+        <f t="shared" si="2"/>
+        <v>45456</v>
+      </c>
+      <c r="I12" s="24">
+        <f>IF(Q12="Y",H12,IF(R12&gt;=1,WORKDAY(H12, R12-1,holiday!A:A),H12+R12))</f>
+        <v>45456.5</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24">
+        <f>IF(Q11="Y",M11,IF(R11&gt;1,WORKDAY(M11, R11,holiday!A:A),M11+R11))</f>
+        <v>45456.5</v>
+      </c>
+      <c r="N12" s="24">
+        <f>IF(Q12="Y",M12,IF(R12&gt;=1,WORKDAY(M12, R12,holiday!A:A),M12+R12))</f>
+        <v>45457</v>
+      </c>
+      <c r="O12" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-13</v>
+      </c>
+      <c r="P12" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-14</v>
+      </c>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="26" customHeight="1">
+      <c r="S12" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H11,Q:Q,"&lt;&gt;Y")-R12</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="26" customHeight="1">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -1853,22 +2121,43 @@
         <v>28</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="26">
-        <f>IF(J12="Y",H12,IF(K12&gt;1,WORKDAY(H12, K12,holiday!A:A),H12+K12))</f>
-        <v>45454.5</v>
-      </c>
-      <c r="I13" s="26">
-        <f>IF(J13="Y",H13,IF(K13&gt;1,WORKDAY(H13, K13-1,holiday!A:A),H13+K13))</f>
-        <v>45454.5</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="9">
+      <c r="H13" s="24">
+        <f t="shared" si="2"/>
+        <v>45457</v>
+      </c>
+      <c r="I13" s="24">
+        <f>IF(Q13="Y",H13,IF(R13&gt;=1,WORKDAY(H13, R13-1,holiday!A:A),H13+R13))</f>
+        <v>45457.5</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24">
+        <f>IF(Q12="Y",M12,IF(R12&gt;1,WORKDAY(M12, R12,holiday!A:A),M12+R12))</f>
+        <v>45457</v>
+      </c>
+      <c r="N13" s="24">
+        <f>IF(Q13="Y",M13,IF(R13&gt;=1,WORKDAY(M13, R13,holiday!A:A),M13+R13))</f>
+        <v>45457.5</v>
+      </c>
+      <c r="O13" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-14</v>
+      </c>
+      <c r="P13" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-14</v>
+      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="26" customHeight="1">
+      <c r="S13" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H12,Q:Q,"&lt;&gt;Y")-R13</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="26" customHeight="1">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -1878,20 +2167,43 @@
         <v>29</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="26">
-        <f>IF(J13="Y",H13,IF(K13&gt;1,WORKDAY(H13, K13,holiday!A:A),H13+K13))</f>
-        <v>45454.5</v>
-      </c>
-      <c r="I14" s="26">
-        <f>IF(J14="Y",H14,IF(K14&gt;1,WORKDAY(H14, K14-1,holiday!A:A),H14+K14))</f>
-        <v>45455</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9">
+      <c r="H14" s="24">
+        <f t="shared" si="2"/>
+        <v>45457</v>
+      </c>
+      <c r="I14" s="24">
+        <f>IF(Q14="Y",H14,IF(R14&gt;=1,WORKDAY(H14, R14-1,holiday!A:A),H14+R14))</f>
+        <v>45457.5</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24">
+        <f>IF(Q13="Y",M13,IF(R13&gt;1,WORKDAY(M13, R13,holiday!A:A),M13+R13))</f>
+        <v>45457.5</v>
+      </c>
+      <c r="N14" s="24">
+        <f>IF(Q14="Y",M14,IF(R14&gt;=1,WORKDAY(M14, R14,holiday!A:A),M14+R14))</f>
+        <v>45458</v>
+      </c>
+      <c r="O14" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-14</v>
+      </c>
+      <c r="P14" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-15</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="26" customHeight="1">
+      <c r="S14" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H13,Q:Q,"&lt;&gt;Y")-R14</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="26" customHeight="1">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -1901,22 +2213,43 @@
         <v>30</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="26">
-        <f>IF(J14="Y",H14,IF(K14&gt;1,WORKDAY(H14, K14,holiday!A:A),H14+K14))</f>
-        <v>45455</v>
-      </c>
-      <c r="I15" s="26">
-        <f>IF(J15="Y",H15,IF(K15&gt;1,WORKDAY(H15, K15-1,holiday!A:A),H15+K15))</f>
-        <v>45455</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="9">
+      <c r="H15" s="24">
+        <f t="shared" si="2"/>
+        <v>45458</v>
+      </c>
+      <c r="I15" s="24">
+        <f>IF(Q15="Y",H15,IF(R15&gt;=1,WORKDAY(H15, R15-1,holiday!A:A),H15+R15))</f>
+        <v>45458.5</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24">
+        <f>IF(Q14="Y",M14,IF(R14&gt;1,WORKDAY(M14, R14,holiday!A:A),M14+R14))</f>
+        <v>45458</v>
+      </c>
+      <c r="N15" s="24">
+        <f>IF(Q15="Y",M15,IF(R15&gt;=1,WORKDAY(M15, R15,holiday!A:A),M15+R15))</f>
+        <v>45458.5</v>
+      </c>
+      <c r="O15" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-15</v>
+      </c>
+      <c r="P15" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-15</v>
+      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="26" customHeight="1">
+      <c r="S15" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H14,Q:Q,"&lt;&gt;Y")-R15</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="26" customHeight="1">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -1926,22 +2259,43 @@
         <v>34</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="26">
-        <f>IF(J15="Y",H15,IF(K15&gt;1,WORKDAY(H15, K15,holiday!A:A),H15+K15))</f>
-        <v>45455</v>
-      </c>
-      <c r="I16" s="26">
-        <f>IF(J16="Y",H16,IF(K16&gt;1,WORKDAY(H16, K16-1,holiday!A:A),H16+K16))</f>
-        <v>45455</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="9">
+      <c r="H16" s="24">
+        <f t="shared" si="2"/>
+        <v>45458</v>
+      </c>
+      <c r="I16" s="24">
+        <f>IF(Q16="Y",H16,IF(R16&gt;=1,WORKDAY(H16, R16-1,holiday!A:A),H16+R16))</f>
+        <v>45458.5</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24">
+        <f>IF(Q15="Y",M15,IF(R15&gt;1,WORKDAY(M15, R15,holiday!A:A),M15+R15))</f>
+        <v>45458.5</v>
+      </c>
+      <c r="N16" s="24">
+        <f>IF(Q16="Y",M16,IF(R16&gt;=1,WORKDAY(M16, R16,holiday!A:A),M16+R16))</f>
+        <v>45459</v>
+      </c>
+      <c r="O16" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-15</v>
+      </c>
+      <c r="P16" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-16</v>
+      </c>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="26" customHeight="1">
+      <c r="S16" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H15,Q:Q,"&lt;&gt;Y")-R16</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="26" customHeight="1">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -1951,22 +2305,43 @@
         <v>35</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="26">
-        <f>IF(J16="Y",H16,IF(K16&gt;1,WORKDAY(H16, K16,holiday!A:A),H16+K16))</f>
-        <v>45455</v>
-      </c>
-      <c r="I17" s="26">
-        <f>IF(J17="Y",H17,IF(K17&gt;1,WORKDAY(H17, K17-1,holiday!A:A),H17+K17))</f>
-        <v>45455</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="9">
+      <c r="H17" s="24">
+        <f t="shared" si="2"/>
+        <v>45459</v>
+      </c>
+      <c r="I17" s="24">
+        <f>IF(Q17="Y",H17,IF(R17&gt;=1,WORKDAY(H17, R17-1,holiday!A:A),H17+R17))</f>
+        <v>45459.5</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24">
+        <f>IF(Q16="Y",M16,IF(R16&gt;1,WORKDAY(M16, R16,holiday!A:A),M16+R16))</f>
+        <v>45459</v>
+      </c>
+      <c r="N17" s="24">
+        <f>IF(Q17="Y",M17,IF(R17&gt;=1,WORKDAY(M17, R17,holiday!A:A),M17+R17))</f>
+        <v>45459.5</v>
+      </c>
+      <c r="O17" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-16</v>
+      </c>
+      <c r="P17" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-16</v>
+      </c>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="26" customHeight="1">
+      <c r="S17" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H16,Q:Q,"&lt;&gt;Y")-R17</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="26" customHeight="1">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -1976,22 +2351,43 @@
         <v>36</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="26">
-        <f>IF(J17="Y",H17,IF(K17&gt;1,WORKDAY(H17, K17,holiday!A:A),H17+K17))</f>
-        <v>45455</v>
-      </c>
-      <c r="I18" s="26">
-        <f>IF(J18="Y",H18,IF(K18&gt;1,WORKDAY(H18, K18-1,holiday!A:A),H18+K18))</f>
-        <v>45455</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="9">
+      <c r="H18" s="24">
+        <f t="shared" si="2"/>
+        <v>45459</v>
+      </c>
+      <c r="I18" s="24">
+        <f>IF(Q18="Y",H18,IF(R18&gt;=1,WORKDAY(H18, R18-1,holiday!A:A),H18+R18))</f>
+        <v>45459.5</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24">
+        <f>IF(Q17="Y",M17,IF(R17&gt;1,WORKDAY(M17, R17,holiday!A:A),M17+R17))</f>
+        <v>45459.5</v>
+      </c>
+      <c r="N18" s="24">
+        <f>IF(Q18="Y",M18,IF(R18&gt;=1,WORKDAY(M18, R18,holiday!A:A),M18+R18))</f>
+        <v>45460</v>
+      </c>
+      <c r="O18" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-16</v>
+      </c>
+      <c r="P18" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-17</v>
+      </c>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="26" customHeight="1">
+      <c r="S18" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H17,Q:Q,"&lt;&gt;Y")-R18</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="26" customHeight="1">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -2001,22 +2397,43 @@
         <v>37</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="26">
-        <f>IF(J18="Y",H18,IF(K18&gt;1,WORKDAY(H18, K18,holiday!A:A),H18+K18))</f>
-        <v>45455</v>
-      </c>
-      <c r="I19" s="26">
-        <f>IF(J19="Y",H19,IF(K19&gt;1,WORKDAY(H19, K19-1,holiday!A:A),H19+K19))</f>
-        <v>45455</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="9">
+      <c r="H19" s="24">
+        <f t="shared" si="2"/>
+        <v>45460</v>
+      </c>
+      <c r="I19" s="24">
+        <f>IF(Q19="Y",H19,IF(R19&gt;=1,WORKDAY(H19, R19-1,holiday!A:A),H19+R19))</f>
+        <v>45460.5</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24">
+        <f>IF(Q18="Y",M18,IF(R18&gt;1,WORKDAY(M18, R18,holiday!A:A),M18+R18))</f>
+        <v>45460</v>
+      </c>
+      <c r="N19" s="24">
+        <f>IF(Q19="Y",M19,IF(R19&gt;=1,WORKDAY(M19, R19,holiday!A:A),M19+R19))</f>
+        <v>45460.5</v>
+      </c>
+      <c r="O19" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-17</v>
+      </c>
+      <c r="P19" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-17</v>
+      </c>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="26" customHeight="1">
+      <c r="S19" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H18,Q:Q,"&lt;&gt;Y")-R19</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="26" customHeight="1">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -2028,20 +2445,43 @@
         <v>33</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="26">
-        <f>IF(J19="Y",H19,IF(K19&gt;1,WORKDAY(H19, K19,holiday!A:A),H19+K19))</f>
-        <v>45455</v>
-      </c>
-      <c r="I20" s="26">
-        <f>IF(J20="Y",H20,IF(K20&gt;1,WORKDAY(H20, K20-1,holiday!A:A),H20+K20))</f>
-        <v>45456</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9">
+      <c r="H20" s="24">
+        <f t="shared" si="2"/>
+        <v>45460</v>
+      </c>
+      <c r="I20" s="24">
+        <f>IF(Q20="Y",H20,IF(R20&gt;=1,WORKDAY(H20, R20-1,holiday!A:A),H20+R20))</f>
+        <v>45460</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24">
+        <f>IF(Q19="Y",M19,IF(R19&gt;1,WORKDAY(M19, R19,holiday!A:A),M19+R19))</f>
+        <v>45460.5</v>
+      </c>
+      <c r="N20" s="24">
+        <f>IF(Q20="Y",M20,IF(R20&gt;=1,WORKDAY(M20, R20,holiday!A:A),M20+R20))</f>
+        <v>45461</v>
+      </c>
+      <c r="O20" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-17</v>
+      </c>
+      <c r="P20" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-18</v>
+      </c>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="26" customHeight="1">
+      <c r="S20" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H19,Q:Q,"&lt;&gt;Y")-R20</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="26" customHeight="1">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -2051,20 +2491,43 @@
         <v>39</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="26">
-        <f>IF(J20="Y",H20,IF(K20&gt;1,WORKDAY(H20, K20,holiday!A:A),H20+K20))</f>
-        <v>45456</v>
-      </c>
-      <c r="I21" s="26">
-        <f>IF(J21="Y",H21,IF(K21&gt;1,WORKDAY(H21, K21-1,holiday!A:A),H21+K21))</f>
-        <v>45457</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9">
+      <c r="H21" s="24">
+        <f t="shared" si="2"/>
+        <v>45461</v>
+      </c>
+      <c r="I21" s="24">
+        <f>IF(Q21="Y",H21,IF(R21&gt;=1,WORKDAY(H21, R21-1,holiday!A:A),H21+R21))</f>
+        <v>45461</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24">
+        <f>IF(Q20="Y",M20,IF(R20&gt;1,WORKDAY(M20, R20,holiday!A:A),M20+R20))</f>
+        <v>45461.5</v>
+      </c>
+      <c r="N21" s="24">
+        <f>IF(Q21="Y",M21,IF(R21&gt;=1,WORKDAY(M21, R21,holiday!A:A),M21+R21))</f>
+        <v>45462</v>
+      </c>
+      <c r="O21" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-18</v>
+      </c>
+      <c r="P21" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-19</v>
+      </c>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="26" customHeight="1">
+      <c r="S21" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H20,Q:Q,"&lt;&gt;Y")-R21</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="26" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -2076,20 +2539,43 @@
       <c r="G22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="26">
-        <f>IF(J21="Y",H21,IF(K21&gt;1,WORKDAY(H21, K21,holiday!A:A),H21+K21))</f>
-        <v>45457</v>
-      </c>
-      <c r="I22" s="26">
-        <f>IF(J22="Y",H22,IF(K22&gt;1,WORKDAY(H22, K22-1,holiday!A:A),H22+K22))</f>
-        <v>45460</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9">
+      <c r="H22" s="24">
+        <f t="shared" si="2"/>
+        <v>45461</v>
+      </c>
+      <c r="I22" s="24">
+        <f>IF(Q22="Y",H22,IF(R22&gt;=1,WORKDAY(H22, R22-1,holiday!A:A),H22+R22))</f>
+        <v>45462</v>
+      </c>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24">
+        <f>IF(Q21="Y",M21,IF(R21&gt;1,WORKDAY(M21, R21,holiday!A:A),M21+R21))</f>
+        <v>45462.5</v>
+      </c>
+      <c r="N22" s="24">
+        <f>IF(Q22="Y",M22,IF(R22&gt;=1,WORKDAY(M22, R22,holiday!A:A),M22+R22))</f>
+        <v>45464</v>
+      </c>
+      <c r="O22" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-19</v>
+      </c>
+      <c r="P22" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-21</v>
+      </c>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="26" customHeight="1">
+      <c r="S22" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H21,Q:Q,"&lt;&gt;Y")-R22</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="26" customHeight="1">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -2101,20 +2587,43 @@
       <c r="G23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="26">
-        <f>IF(J22="Y",H22,IF(K22&gt;1,WORKDAY(H22, K22,holiday!A:A),H22+K22))</f>
-        <v>45461</v>
-      </c>
-      <c r="I23" s="26">
-        <f>IF(J23="Y",H23,IF(K23&gt;1,WORKDAY(H23, K23-1,holiday!A:A),H23+K23))</f>
-        <v>45462</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9">
+      <c r="H23" s="24">
+        <f t="shared" si="2"/>
+        <v>45463</v>
+      </c>
+      <c r="I23" s="24">
+        <f>IF(Q23="Y",H23,IF(R23&gt;=1,WORKDAY(H23, R23-1,holiday!A:A),H23+R23))</f>
+        <v>45464</v>
+      </c>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24">
+        <f>IF(Q22="Y",M22,IF(R22&gt;1,WORKDAY(M22, R22,holiday!A:A),M22+R22))</f>
+        <v>45464</v>
+      </c>
+      <c r="N23" s="24">
+        <f>IF(Q23="Y",M23,IF(R23&gt;=1,WORKDAY(M23, R23,holiday!A:A),M23+R23))</f>
+        <v>45468</v>
+      </c>
+      <c r="O23" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-21</v>
+      </c>
+      <c r="P23" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-25</v>
+      </c>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="26" customHeight="1">
+      <c r="S23" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H22,Q:Q,"&lt;&gt;Y")-R23</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="26" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -2124,20 +2633,43 @@
       <c r="G24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="26">
-        <f>IF(J23="Y",H23,IF(K23&gt;1,WORKDAY(H23, K23,holiday!A:A),H23+K23))</f>
-        <v>45463</v>
-      </c>
-      <c r="I24" s="26">
-        <f>IF(J24="Y",H24,IF(K24&gt;1,WORKDAY(H24, K24-1,holiday!A:A),H24+K24))</f>
+      <c r="H24" s="24">
+        <f t="shared" si="2"/>
         <v>45464</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9">
+      <c r="I24" s="24">
+        <f>IF(Q24="Y",H24,IF(R24&gt;=1,WORKDAY(H24, R24-1,holiday!A:A),H24+R24))</f>
+        <v>45467</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24">
+        <f>IF(Q23="Y",M23,IF(R23&gt;1,WORKDAY(M23, R23,holiday!A:A),M23+R23))</f>
+        <v>45468</v>
+      </c>
+      <c r="N24" s="24">
+        <f>IF(Q24="Y",M24,IF(R24&gt;=1,WORKDAY(M24, R24,holiday!A:A),M24+R24))</f>
+        <v>45470</v>
+      </c>
+      <c r="O24" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-25</v>
+      </c>
+      <c r="P24" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-27</v>
+      </c>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="26" customHeight="1">
+      <c r="S24" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H23,Q:Q,"&lt;&gt;Y")-R24</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="26" customHeight="1">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -2145,22 +2677,45 @@
       <c r="E25" s="22"/>
       <c r="F25" s="16"/>
       <c r="G25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="26">
-        <f>IF(J24="Y",H24,IF(K24&gt;1,WORKDAY(H24, K24,holiday!A:A),H24+K24))</f>
-        <v>45467</v>
-      </c>
-      <c r="I25" s="26">
-        <f>IF(J25="Y",H25,IF(K25&gt;1,WORKDAY(H25, K25-1,holiday!A:A),H25+K25))</f>
-        <v>45468</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9">
+        <v>51</v>
+      </c>
+      <c r="H25" s="24">
+        <f t="shared" si="2"/>
+        <v>45471</v>
+      </c>
+      <c r="I25" s="24">
+        <f>IF(Q25="Y",H25,IF(R25&gt;=1,WORKDAY(H25, R25-1,holiday!A:A),H25+R25))</f>
+        <v>45471</v>
+      </c>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24">
+        <f>IF(Q24="Y",M24,IF(R24&gt;1,WORKDAY(M24, R24,holiday!A:A),M24+R24))</f>
+        <v>45470</v>
+      </c>
+      <c r="N25" s="24">
+        <f>IF(Q25="Y",M25,IF(R25&gt;=1,WORKDAY(M25, R25,holiday!A:A),M25+R25))</f>
+        <v>45471</v>
+      </c>
+      <c r="O25" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-27</v>
+      </c>
+      <c r="P25" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-06-28</v>
+      </c>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="26" customHeight="1">
+      <c r="S25" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H24,Q:Q,"&lt;&gt;Y")-R25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="26" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -2170,20 +2725,43 @@
       <c r="G26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="26">
-        <f>IF(J25="Y",H25,IF(K25&gt;1,WORKDAY(H25, K25,holiday!A:A),H25+K25))</f>
-        <v>45468</v>
-      </c>
-      <c r="I26" s="26">
-        <f>IF(J26="Y",H26,IF(K26&gt;1,WORKDAY(H26, K26-1,holiday!A:A),H26+K26))</f>
-        <v>45469</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9">
+      <c r="H26" s="24">
+        <f t="shared" si="2"/>
+        <v>45474</v>
+      </c>
+      <c r="I26" s="24">
+        <f>IF(Q26="Y",H26,IF(R26&gt;=1,WORKDAY(H26, R26-1,holiday!A:A),H26+R26))</f>
+        <v>45474</v>
+      </c>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24">
+        <f>IF(Q25="Y",M25,IF(R25&gt;1,WORKDAY(M25, R25,holiday!A:A),M25+R25))</f>
+        <v>45471</v>
+      </c>
+      <c r="N26" s="24">
+        <f>IF(Q26="Y",M26,IF(R26&gt;=1,WORKDAY(M26, R26,holiday!A:A),M26+R26))</f>
+        <v>45474</v>
+      </c>
+      <c r="O26" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-28</v>
+      </c>
+      <c r="P26" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-07-01</v>
+      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="26" customHeight="1">
+      <c r="S26" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H25,Q:Q,"&lt;&gt;Y")-R26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="26" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -2192,23 +2770,46 @@
         <v>15</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="26">
-        <f>IF(J26="Y",H26,IF(K26&gt;1,WORKDAY(H26, K26,holiday!A:A),H26+K26))</f>
-        <v>45469</v>
-      </c>
-      <c r="I27" s="26">
-        <f>IF(J27="Y",H27,IF(K27&gt;1,WORKDAY(H27, K27-1,holiday!A:A),H27+K27))</f>
+      <c r="H27" s="24">
+        <f t="shared" si="2"/>
         <v>45470</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9">
+      <c r="I27" s="24">
+        <f>IF(Q27="Y",H27,IF(R27&gt;=1,WORKDAY(H27, R27-1,holiday!A:A),H27+R27))</f>
+        <v>45471</v>
+      </c>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24">
+        <f>IF(Q26="Y",M26,IF(R26&gt;1,WORKDAY(M26, R26,holiday!A:A),M26+R26))</f>
+        <v>45472</v>
+      </c>
+      <c r="N27" s="24">
+        <f>IF(Q27="Y",M27,IF(R27&gt;=1,WORKDAY(M27, R27,holiday!A:A),M27+R27))</f>
+        <v>45475</v>
+      </c>
+      <c r="O27" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-06-29</v>
+      </c>
+      <c r="P27" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-07-02</v>
+      </c>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="26" customHeight="1">
+      <c r="S27" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H26,Q:Q,"&lt;&gt;Y")-R27</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="26" customHeight="1">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -2218,22 +2819,43 @@
         <v>20</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="26">
-        <f>IF(J27="Y",H27,IF(K27&gt;1,WORKDAY(H27, K27,holiday!A:A),H27+K27))</f>
-        <v>45471</v>
-      </c>
-      <c r="I28" s="26">
-        <f>IF(J28="Y",H28,IF(K28&gt;1,WORKDAY(H28, K28-1,holiday!A:A),H28+K28))</f>
-        <v>45471</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="9">
+      <c r="H28" s="24">
+        <f t="shared" si="2"/>
+        <v>45476</v>
+      </c>
+      <c r="I28" s="24">
+        <f>IF(Q28="Y",H28,IF(R28&gt;=1,WORKDAY(H28, R28-1,holiday!A:A),H28+R28))</f>
+        <v>45476</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24">
+        <f>IF(Q27="Y",M27,IF(R27&gt;1,WORKDAY(M27, R27,holiday!A:A),M27+R27))</f>
+        <v>45475</v>
+      </c>
+      <c r="N28" s="24">
+        <f>IF(Q28="Y",M28,IF(R28&gt;=1,WORKDAY(M28, R28,holiday!A:A),M28+R28))</f>
+        <v>45476</v>
+      </c>
+      <c r="O28" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-07-02</v>
+      </c>
+      <c r="P28" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-07-03</v>
+      </c>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="26" customHeight="1">
+      <c r="S28" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H27,Q:Q,"&lt;&gt;Y")-R28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="26" customHeight="1">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -2243,20 +2865,43 @@
         <v>21</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="26">
-        <f>IF(J28="Y",H28,IF(K28&gt;1,WORKDAY(H28, K28,holiday!A:A),H28+K28))</f>
-        <v>45471</v>
-      </c>
-      <c r="I29" s="26">
-        <f>IF(J29="Y",H29,IF(K29&gt;1,WORKDAY(H29, K29-1,holiday!A:A),H29+K29))</f>
-        <v>45471.5</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9">
+      <c r="H29" s="24">
+        <f t="shared" si="2"/>
+        <v>45478</v>
+      </c>
+      <c r="I29" s="24">
+        <f>IF(Q29="Y",H29,IF(R29&gt;=1,WORKDAY(H29, R29-1,holiday!A:A),H29+R29))</f>
+        <v>45478.5</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24">
+        <f>IF(Q28="Y",M28,IF(R28&gt;1,WORKDAY(M28, R28,holiday!A:A),M28+R28))</f>
+        <v>45476</v>
+      </c>
+      <c r="N29" s="24">
+        <f>IF(Q29="Y",M29,IF(R29&gt;=1,WORKDAY(M29, R29,holiday!A:A),M29+R29))</f>
+        <v>45476.5</v>
+      </c>
+      <c r="O29" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-07-03</v>
+      </c>
+      <c r="P29" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-07-03</v>
+      </c>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="26" customHeight="1">
+      <c r="S29" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H28,Q:Q,"&lt;&gt;Y")-R29</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="26" customHeight="1">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -2268,20 +2913,43 @@
       <c r="G30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="26">
-        <f>IF(J29="Y",H29,IF(K29&gt;1,WORKDAY(H29, K29,holiday!A:A),H29+K29))</f>
-        <v>45471.5</v>
-      </c>
-      <c r="I30" s="26">
-        <f>IF(J30="Y",H30,IF(K30&gt;1,WORKDAY(H30, K30-1,holiday!A:A),H30+K30))</f>
-        <v>45474</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9">
+      <c r="H30" s="24">
+        <f t="shared" si="2"/>
+        <v>45475</v>
+      </c>
+      <c r="I30" s="24">
+        <f>IF(Q30="Y",H30,IF(R30&gt;=1,WORKDAY(H30, R30-1,holiday!A:A),H30+R30))</f>
+        <v>45476</v>
+      </c>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24">
+        <f>IF(Q29="Y",M29,IF(R29&gt;1,WORKDAY(M29, R29,holiday!A:A),M29+R29))</f>
+        <v>45476.5</v>
+      </c>
+      <c r="N30" s="24">
+        <f>IF(Q30="Y",M30,IF(R30&gt;=1,WORKDAY(M30, R30,holiday!A:A),M30+R30))</f>
+        <v>45478</v>
+      </c>
+      <c r="O30" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-07-03</v>
+      </c>
+      <c r="P30" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-07-05</v>
+      </c>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="26" customHeight="1">
+      <c r="S30" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H29,Q:Q,"&lt;&gt;Y")-R30</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="26" customHeight="1">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -2293,20 +2961,43 @@
       <c r="G31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="26">
-        <f>IF(J30="Y",H30,IF(K30&gt;1,WORKDAY(H30, K30,holiday!A:A),H30+K30))</f>
-        <v>45475</v>
-      </c>
-      <c r="I31" s="26">
-        <f>IF(J31="Y",H31,IF(K31&gt;1,WORKDAY(H31, K31-1,holiday!A:A),H31+K31))</f>
-        <v>45476</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9">
+      <c r="H31" s="24">
+        <f t="shared" si="2"/>
+        <v>45481</v>
+      </c>
+      <c r="I31" s="24">
+        <f>IF(Q31="Y",H31,IF(R31&gt;=1,WORKDAY(H31, R31-1,holiday!A:A),H31+R31))</f>
+        <v>45481</v>
+      </c>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24">
+        <f>IF(Q30="Y",M30,IF(R30&gt;1,WORKDAY(M30, R30,holiday!A:A),M30+R30))</f>
+        <v>45478</v>
+      </c>
+      <c r="N31" s="24">
+        <f>IF(Q31="Y",M31,IF(R31&gt;=1,WORKDAY(M31, R31,holiday!A:A),M31+R31))</f>
+        <v>45481</v>
+      </c>
+      <c r="O31" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-07-05</v>
+      </c>
+      <c r="P31" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-07-08</v>
+      </c>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="26" customHeight="1">
+      <c r="S31" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H30,Q:Q,"&lt;&gt;Y")-R31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="26" customHeight="1">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -2316,20 +3007,43 @@
       <c r="G32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="26">
-        <f>IF(J31="Y",H31,IF(K31&gt;1,WORKDAY(H31, K31,holiday!A:A),H31+K31))</f>
-        <v>45476</v>
-      </c>
-      <c r="I32" s="26">
-        <f>IF(J32="Y",H32,IF(K32&gt;1,WORKDAY(H32, K32-1,holiday!A:A),H32+K32))</f>
-        <v>45477</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9">
+      <c r="H32" s="24">
+        <f t="shared" si="2"/>
+        <v>45481</v>
+      </c>
+      <c r="I32" s="24">
+        <f>IF(Q32="Y",H32,IF(R32&gt;=1,WORKDAY(H32, R32-1,holiday!A:A),H32+R32))</f>
+        <v>45481</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24">
+        <f>IF(Q31="Y",M31,IF(R31&gt;1,WORKDAY(M31, R31,holiday!A:A),M31+R31))</f>
+        <v>45479</v>
+      </c>
+      <c r="N32" s="24">
+        <f>IF(Q32="Y",M32,IF(R32&gt;=1,WORKDAY(M32, R32,holiday!A:A),M32+R32))</f>
+        <v>45481</v>
+      </c>
+      <c r="O32" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-07-06</v>
+      </c>
+      <c r="P32" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-07-08</v>
+      </c>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="26" customHeight="1">
+      <c r="S32" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H31,Q:Q,"&lt;&gt;Y")-R32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="26" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -2341,20 +3055,43 @@
       <c r="G33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="26">
-        <f>IF(J32="Y",H32,IF(K32&gt;1,WORKDAY(H32, K32,holiday!A:A),H32+K32))</f>
-        <v>45477</v>
-      </c>
-      <c r="I33" s="26">
-        <f>IF(J33="Y",H33,IF(K33&gt;1,WORKDAY(H33, K33-1,holiday!A:A),H33+K33))</f>
-        <v>45478</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9">
+      <c r="H33" s="24">
+        <f t="shared" si="2"/>
+        <v>45481</v>
+      </c>
+      <c r="I33" s="24">
+        <f>IF(Q33="Y",H33,IF(R33&gt;=1,WORKDAY(H33, R33-1,holiday!A:A),H33+R33))</f>
+        <v>45481</v>
+      </c>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24">
+        <f>IF(Q32="Y",M32,IF(R32&gt;1,WORKDAY(M32, R32,holiday!A:A),M32+R32))</f>
+        <v>45480</v>
+      </c>
+      <c r="N33" s="24">
+        <f>IF(Q33="Y",M33,IF(R33&gt;=1,WORKDAY(M33, R33,holiday!A:A),M33+R33))</f>
+        <v>45481</v>
+      </c>
+      <c r="O33" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-07-07</v>
+      </c>
+      <c r="P33" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-07-08</v>
+      </c>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="26" customHeight="1">
+      <c r="S33" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H32,Q:Q,"&lt;&gt;Y")-R33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="26" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -2364,20 +3101,43 @@
       <c r="G34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="26">
-        <f>IF(J33="Y",H33,IF(K33&gt;1,WORKDAY(H33, K33,holiday!A:A),H33+K33))</f>
-        <v>45478</v>
-      </c>
-      <c r="I34" s="26">
-        <f>IF(J34="Y",H34,IF(K34&gt;1,WORKDAY(H34, K34-1,holiday!A:A),H34+K34))</f>
-        <v>45479</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9">
+      <c r="H34" s="24">
+        <f t="shared" si="2"/>
+        <v>45482</v>
+      </c>
+      <c r="I34" s="24">
+        <f>IF(Q34="Y",H34,IF(R34&gt;=1,WORKDAY(H34, R34-1,holiday!A:A),H34+R34))</f>
+        <v>45482</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24">
+        <f>IF(Q33="Y",M33,IF(R33&gt;1,WORKDAY(M33, R33,holiday!A:A),M33+R33))</f>
+        <v>45481</v>
+      </c>
+      <c r="N34" s="24">
+        <f>IF(Q34="Y",M34,IF(R34&gt;=1,WORKDAY(M34, R34,holiday!A:A),M34+R34))</f>
+        <v>45482</v>
+      </c>
+      <c r="O34" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-07-08</v>
+      </c>
+      <c r="P34" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-07-09</v>
+      </c>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="26" customHeight="1">
+      <c r="S34" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H33,Q:Q,"&lt;&gt;Y")-R34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="26" customHeight="1">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -2389,20 +3149,43 @@
       <c r="G35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="26">
-        <f>IF(J34="Y",H34,IF(K34&gt;1,WORKDAY(H34, K34,holiday!A:A),H34+K34))</f>
-        <v>45479</v>
-      </c>
-      <c r="I35" s="26">
-        <f>IF(J35="Y",H35,IF(K35&gt;1,WORKDAY(H35, K35-1,holiday!A:A),H35+K35))</f>
-        <v>45480</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9">
+      <c r="H35" s="24">
+        <f t="shared" si="2"/>
+        <v>45483</v>
+      </c>
+      <c r="I35" s="24">
+        <f>IF(Q35="Y",H35,IF(R35&gt;=1,WORKDAY(H35, R35-1,holiday!A:A),H35+R35))</f>
+        <v>45483</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24">
+        <f>IF(Q34="Y",M34,IF(R34&gt;1,WORKDAY(M34, R34,holiday!A:A),M34+R34))</f>
+        <v>45482</v>
+      </c>
+      <c r="N35" s="24">
+        <f>IF(Q35="Y",M35,IF(R35&gt;=1,WORKDAY(M35, R35,holiday!A:A),M35+R35))</f>
+        <v>45483</v>
+      </c>
+      <c r="O35" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-07-09</v>
+      </c>
+      <c r="P35" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-07-10</v>
+      </c>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="26" customHeight="1">
+      <c r="S35" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H34,Q:Q,"&lt;&gt;Y")-R35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="26" customHeight="1">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -2412,110 +3195,294 @@
       <c r="G36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="26">
-        <f>IF(J35="Y",H35,IF(K35&gt;1,WORKDAY(H35, K35,holiday!A:A),H35+K35))</f>
-        <v>45480</v>
-      </c>
-      <c r="I36" s="26">
-        <f>IF(J36="Y",H36,IF(K36&gt;1,WORKDAY(H36, K36-1,holiday!A:A),H36+K36))</f>
-        <v>45481</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9">
+      <c r="H36" s="24">
+        <f t="shared" si="2"/>
+        <v>45484</v>
+      </c>
+      <c r="I36" s="24">
+        <f>IF(Q36="Y",H36,IF(R36&gt;=1,WORKDAY(H36, R36-1,holiday!A:A),H36+R36))</f>
+        <v>45484</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24">
+        <f>IF(Q35="Y",M35,IF(R35&gt;1,WORKDAY(M35, R35,holiday!A:A),M35+R35))</f>
+        <v>45483</v>
+      </c>
+      <c r="N36" s="24">
+        <f>IF(Q36="Y",M36,IF(R36&gt;=1,WORKDAY(M36, R36,holiday!A:A),M36+R36))</f>
+        <v>45484</v>
+      </c>
+      <c r="O36" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-07-10</v>
+      </c>
+      <c r="P36" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-07-11</v>
+      </c>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="S36" s="29">
+        <f>SUMIFS(R:R,O:O,""&amp;H35,Q:Q,"&lt;&gt;Y")-R36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+    </row>
+    <row r="38" spans="1:19">
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:19">
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:19">
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="1:19">
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+    </row>
+    <row r="42" spans="1:19">
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" spans="1:19">
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+    </row>
+    <row r="44" spans="1:19">
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" spans="1:19">
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" spans="1:19">
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="1:19">
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+    </row>
+    <row r="48" spans="1:19">
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="8:9">
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="8:16">
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-    </row>
-    <row r="50" spans="8:9">
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="8:16">
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-    </row>
-    <row r="51" spans="8:9">
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="8:16">
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
-    </row>
-    <row r="52" spans="8:9">
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" spans="8:16">
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
-    </row>
-    <row r="53" spans="8:9">
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="8:16">
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
-    </row>
-    <row r="54" spans="8:9">
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+    </row>
+    <row r="54" spans="8:16">
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
-    </row>
-    <row r="55" spans="8:9">
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="8:16">
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
-    </row>
-    <row r="56" spans="8:9">
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+    </row>
+    <row r="56" spans="8:16">
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
-    </row>
-    <row r="57" spans="8:9">
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="8:16">
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-    </row>
-    <row r="58" spans="8:9">
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+    </row>
+    <row r="58" spans="8:16">
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
-    </row>
-    <row r="59" spans="8:9">
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+    </row>
+    <row r="59" spans="8:16">
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
